--- a/data/waterlevel/Waterlevel1.xlsx
+++ b/data/waterlevel/Waterlevel1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="105" yWindow="105" windowWidth="10005" windowHeight="7005"/>
   </bookViews>
   <sheets>
-    <sheet name="청천" sheetId="23" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="23" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
